--- a/WebApplication3/wwwroot/Formatos/ComescuamaAlistamientoMaterial.xlsx
+++ b/WebApplication3/wwwroot/Formatos/ComescuamaAlistamientoMaterial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD1B54C-8426-4173-A5C0-A564329FA1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C667DDFE-27EE-4A9F-9ABA-AD300323387E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="5460" windowWidth="19665" windowHeight="8835" xr2:uid="{8F1D26BB-1AB8-4E2B-A9EB-511C329909E6}"/>
+    <workbookView xWindow="3105" yWindow="9120" windowWidth="22320" windowHeight="6480" xr2:uid="{8F1D26BB-1AB8-4E2B-A9EB-511C329909E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Capacidad 
 Operativa</t>
@@ -62,10 +62,7 @@
 Alistamiento Parcial</t>
   </si>
   <si>
-    <t>FM52</t>
-  </si>
-  <si>
-    <t>FM53</t>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -109,12 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
@@ -481,15 +481,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
